--- a/data/trans_dic/IP1003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,94</t>
+          <t>4,38; 10,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,41</t>
+          <t>4,27; 9,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,97</t>
+          <t>3,25; 7,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,15</t>
+          <t>3,59; 10,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,84</t>
+          <t>6,46; 13,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,07</t>
+          <t>3,03; 8,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,3</t>
+          <t>3,37; 8,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,64</t>
+          <t>2,42; 7,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,95</t>
+          <t>6,18; 10,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,27</t>
+          <t>4,46; 8,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,59</t>
+          <t>3,81; 7,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 11,39</t>
+          <t>3,62; 7,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,14</t>
+          <t>7,12; 12,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,88</t>
+          <t>4,93; 10,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,7</t>
+          <t>5,4; 10,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,25</t>
+          <t>8,22; 14,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,22</t>
+          <t>3,95; 8,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,28</t>
+          <t>4,65; 10,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,29</t>
+          <t>3,38; 8,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,64</t>
+          <t>5,53; 10,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,4</t>
+          <t>6,1; 9,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,34</t>
+          <t>5,51; 9,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,35</t>
+          <t>4,98; 8,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,48</t>
+          <t>7,49; 11,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,1</t>
+          <t>1,1; 6,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,72</t>
+          <t>0,45; 3,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,72</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,04</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,48</t>
+          <t>0,49; 4,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,34</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,57</t>
+          <t>0,43; 3,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,4</t>
+          <t>1,13; 4,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,47</t>
+          <t>0,23; 2,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,35</t>
+          <t>0,45; 2,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,5</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,14</t>
+          <t>3,72; 8,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,88</t>
+          <t>3,91; 8,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,7</t>
+          <t>2,89; 7,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,25</t>
+          <t>2,63; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,22</t>
+          <t>4,36; 9,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,28</t>
+          <t>2,36; 6,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,29</t>
+          <t>1,65; 5,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,64</t>
+          <t>1,64; 6,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,4</t>
+          <t>4,47; 8,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,34</t>
+          <t>3,63; 7,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,35</t>
+          <t>2,66; 5,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,48</t>
+          <t>2,67; 6,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>7,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,94</t>
+          <t>5,37; 12,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,41</t>
+          <t>5,82; 13,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,97</t>
+          <t>4,01; 10,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,15</t>
+          <t>4,99; 12,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,84</t>
+          <t>5,29; 13,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,07</t>
+          <t>3,45; 9,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,3</t>
+          <t>4,7; 11,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,64</t>
+          <t>3,38; 9,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,95</t>
+          <t>6,19; 11,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,27</t>
+          <t>5,63; 10,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,59</t>
+          <t>4,96; 9,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 11,39</t>
+          <t>5,13; 10,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,44</t>
+          <t>6,36; 13,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,7</t>
+          <t>4,61; 10,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,7</t>
+          <t>4,41; 11,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,23</t>
+          <t>8,33; 15,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,46</t>
+          <t>3,38; 8,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,18</t>
+          <t>4,66; 11,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,08</t>
+          <t>3,07; 8,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,4</t>
+          <t>5,51; 11,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,61</t>
+          <t>5,62; 9,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,52</t>
+          <t>5,35; 9,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,92</t>
+          <t>4,43; 8,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,3</t>
+          <t>7,63; 12,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 8,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 7,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 6,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 10,32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 7,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 6,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 5,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 7,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 7,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 6,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 5,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 8,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP1003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,6</t>
+          <t>1,11; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,9</t>
+          <t>0,45; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,31</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,84</t>
+          <t>0,49; 5,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,59</t>
+          <t>0,43; 3,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,38</t>
+          <t>1,02; 4,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,22</t>
+          <t>0,25; 2,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,68</t>
+          <t>0,47; 2,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,56</t>
+          <t>3,79; 8,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,65</t>
+          <t>3,84; 8,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,43</t>
+          <t>2,64; 7,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,82</t>
+          <t>2,53; 8,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,1</t>
+          <t>4,37; 9,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,91</t>
+          <t>2,24; 6,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,99</t>
+          <t>1,67; 6,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,69</t>
+          <t>1,72; 6,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,06</t>
+          <t>4,55; 7,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,17</t>
+          <t>3,61; 6,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,72</t>
+          <t>2,7; 5,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,34</t>
+          <t>2,57; 6,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,95</t>
+          <t>5,51; 13,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,79</t>
+          <t>6,12; 13,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 10,46</t>
+          <t>4,02; 10,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 12,8</t>
+          <t>5,24; 12,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 13,21</t>
+          <t>5,0; 13,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,95</t>
+          <t>3,61; 10,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,65</t>
+          <t>4,49; 11,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,71</t>
+          <t>3,72; 9,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,77</t>
+          <t>6,19; 11,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,8</t>
+          <t>5,38; 10,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,39</t>
+          <t>5,03; 9,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,13</t>
+          <t>5,0; 9,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 13,05</t>
+          <t>6,32; 12,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,71</t>
+          <t>4,43; 11,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,2</t>
+          <t>4,49; 11,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,44</t>
+          <t>8,34; 15,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,91</t>
+          <t>3,7; 9,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,36</t>
+          <t>4,67; 11,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,75</t>
+          <t>3,22; 9,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,51</t>
+          <t>5,26; 11,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,85</t>
+          <t>5,61; 9,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,94</t>
+          <t>5,37; 10,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,86</t>
+          <t>4,53; 8,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,28</t>
+          <t>7,85; 12,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,43</t>
+          <t>5,36; 8,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,8</t>
+          <t>4,71; 7,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,74</t>
+          <t>3,98; 6,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,32</t>
+          <t>6,56; 10,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,52</t>
+          <t>4,59; 7,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,08</t>
+          <t>3,48; 6,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,98</t>
+          <t>3,3; 5,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,39</t>
+          <t>4,34; 7,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,57</t>
+          <t>5,36; 7,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,47</t>
+          <t>4,42; 6,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 5,99</t>
+          <t>3,93; 5,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,51</t>
+          <t>5,94; 8,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,96%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1,42%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,05%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,42</t>
+          <t>0,49; 4,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,74</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,6</t>
+          <t>0,43; 3,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,26</t>
+          <t>1,1; 6,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,45; 3,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,64</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,66</t>
+          <t>0,0; 4,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,43</t>
+          <t>1,14; 4,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,43</t>
+          <t>0,25; 2,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,66</t>
+          <t>0,44; 2,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,89%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5,96%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>4,72%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,86%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,34%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,62</t>
+          <t>4,25; 9,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,68</t>
+          <t>2,3; 6,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,14</t>
+          <t>1,79; 6,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,84</t>
+          <t>1,57; 6,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,58</t>
+          <t>3,85; 8,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>3,92; 8,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,3</t>
+          <t>2,96; 7,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,51</t>
+          <t>2,99; 9,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,87</t>
+          <t>4,45; 8,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,99</t>
+          <t>3,71; 7,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,93</t>
+          <t>2,78; 5,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,51</t>
+          <t>2,53; 6,49</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>8,82%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>9,3%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>6,64%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,61%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,26%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,23</t>
+          <t>5,5; 13,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 13,87</t>
+          <t>3,74; 10,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,47</t>
+          <t>4,62; 11,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,83</t>
+          <t>3,62; 9,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,02</t>
+          <t>5,66; 13,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,67</t>
+          <t>6,08; 13,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,01</t>
+          <t>3,78; 10,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,81</t>
+          <t>5,09; 14,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,68</t>
+          <t>6,3; 11,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,94</t>
+          <t>5,54; 10,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,38</t>
+          <t>5,06; 9,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,96</t>
+          <t>4,91; 10,25</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>9,2%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>7,28%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>7,23%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,55%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,46%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 12,97</t>
+          <t>3,61; 9,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,04</t>
+          <t>4,56; 11,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,24</t>
+          <t>3,36; 9,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 15,6</t>
+          <t>4,56; 10,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,21</t>
+          <t>6,08; 12,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,43</t>
+          <t>4,5; 11,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 9,26</t>
+          <t>4,39; 11,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,04</t>
+          <t>8,2; 15,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,86</t>
+          <t>5,51; 9,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,15</t>
+          <t>5,19; 9,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,8</t>
+          <t>4,42; 8,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 12,28</t>
+          <t>7,1; 12,07</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>6,91%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>6,1%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>5,18%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,59</t>
+          <t>4,59; 7,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,74</t>
+          <t>3,45; 6,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,7</t>
+          <t>3,29; 6,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,22</t>
+          <t>4,14; 7,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,54</t>
+          <t>5,43; 8,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,17</t>
+          <t>4,81; 7,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,92</t>
+          <t>3,92; 6,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,29</t>
+          <t>6,45; 10,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 7,51</t>
+          <t>5,46; 7,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,42</t>
+          <t>4,48; 6,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 5,88</t>
+          <t>4,01; 5,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,35</t>
+          <t>5,66; 8,2</t>
         </is>
       </c>
     </row>
